--- a/Schedule/タスク.xlsx
+++ b/Schedule/タスク.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15530" windowHeight="6970"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15530" windowHeight="6970" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="タスク表" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="113">
   <si>
     <t>仕様書</t>
     <rPh sb="0" eb="3">
@@ -777,6 +777,13 @@
   </si>
   <si>
     <t>〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>α版はできた△</t>
+    <rPh sb="1" eb="2">
+      <t>バン</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1709,8 +1716,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -2160,8 +2167,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:G11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -2223,6 +2230,9 @@
     <row r="9" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" t="s">
         <v>103</v>
+      </c>
+      <c r="G9" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.55000000000000004">
